--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D71CD96-DF15-B940-8966-1852D05E1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0CD07-27C4-2844-8B33-B514AA1B23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Publicação</t>
   </si>
@@ -52,6 +52,16 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1irUsMG537gJp7F91nesO1Soz_nrNzV06</t>
+  </si>
+  <si>
+    <t>EDITAL No12/2022
+PROCESSO SELETIVO SIMPLIFICADO PARA CONTRATAÇÃO DE PROFESSOR SUBSTITUTO
+CLASSIFICAÇÃO FINAL REGIÃO METROPOLITANA
+CAMPUS: Realengo
+DISCIPLINA: Estágio Supervisionado em Fisioterapia I, Humanização em Saúde, Educação e Promoção em Saúde, Projeto de Intervenção, Educação em Saúde, Promoção e Cuidado em Saúde</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AO5CDIWWRP-kyBqsTesIQItQ93MmUJ-J</t>
   </si>
 </sst>
 </file>
@@ -445,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,9 +489,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>44775</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C0CD07-27C4-2844-8B33-B514AA1B23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D54A9B7-DBAE-8242-B05F-D4D262719D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
+    <sheet name="2021" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Publicação</t>
   </si>
@@ -62,6 +63,14 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1AO5CDIWWRP-kyBqsTesIQItQ93MmUJ-J</t>
+  </si>
+  <si>
+    <t>DECRETO N° 9.962
+Nomeia JOÃO PAULO FREITAS professor de Ensino Superior da UENP.
+O GOVERNADOR DO ESTADO DO PARANÁ, no uso de suas atribuições e ainda, em cumprimento à decisão judicial contida nos autos de no 0000497-41.2020.8.16.0018 do 1o Juizado Especial da Fazenda Pública de Londrina, conforme consubstanciada no protocolo no 18.343.020-3,</t>
+  </si>
+  <si>
+    <t>https://www.documentos.dioe.pr.gov.br/dioe/consultaPublicaPDF.do?action=pgLocalizar&amp;enviado=true&amp;numero=11083&amp;dataInicialEntrada=27%2F04%2F2023&amp;dataFinalEntrada=27%2F04%2F2023&amp;search=Jo%C3%A3o+Paulo+Freitas&amp;diarioCodigo=3&amp;submit=Localizar&amp;localizador=</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -139,6 +148,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,6 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -507,4 +523,49 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F3023D-3C62-2D4A-A6DA-945DCC14E6EE}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44552</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C59C1870-E380-064F-A734-5A72D9EDA9F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D54A9B7-DBAE-8242-B05F-D4D262719D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7A37B-B07A-5847-94DB-4BB0FF256CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -52,9 +52,6 @@
 ART.1° - Designar sem ônus para Secretaria de Estado da Saúde de Roraima os servidores estaduais relacionados abaixo, para responder como coordenadores do Serviço de Fisioterapia do Hospital Geral de Roraima - HGR, conforme solicitação efetivada pelo Ofício 6525587.</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1irUsMG537gJp7F91nesO1Soz_nrNzV06</t>
-  </si>
-  <si>
     <t>EDITAL No12/2022
 PROCESSO SELETIVO SIMPLIFICADO PARA CONTRATAÇÃO DE PROFESSOR SUBSTITUTO
 CLASSIFICAÇÃO FINAL REGIÃO METROPOLITANA
@@ -62,15 +59,18 @@
 DISCIPLINA: Estágio Supervisionado em Fisioterapia I, Humanização em Saúde, Educação e Promoção em Saúde, Projeto de Intervenção, Educação em Saúde, Promoção e Cuidado em Saúde</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1AO5CDIWWRP-kyBqsTesIQItQ93MmUJ-J</t>
-  </si>
-  <si>
     <t>DECRETO N° 9.962
 Nomeia JOÃO PAULO FREITAS professor de Ensino Superior da UENP.
 O GOVERNADOR DO ESTADO DO PARANÁ, no uso de suas atribuições e ainda, em cumprimento à decisão judicial contida nos autos de no 0000497-41.2020.8.16.0018 do 1o Juizado Especial da Fazenda Pública de Londrina, conforme consubstanciada no protocolo no 18.343.020-3,</t>
   </si>
   <si>
     <t>https://www.documentos.dioe.pr.gov.br/dioe/consultaPublicaPDF.do?action=pgLocalizar&amp;enviado=true&amp;numero=11083&amp;dataInicialEntrada=27%2F04%2F2023&amp;dataFinalEntrada=27%2F04%2F2023&amp;search=Jo%C3%A3o+Paulo+Freitas&amp;diarioCodigo=3&amp;submit=Localizar&amp;localizador=</t>
+  </si>
+  <si>
+    <t>https://portal.ifrj.edu.br/sites/default/files/IFRJ/Processos%20Seletivos/edital_12.2022_-_resultado_classificacao_final_-_met.pdf</t>
+  </si>
+  <si>
+    <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -510,15 +510,15 @@
         <v>44775</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -556,10 +556,10 @@
         <v>44552</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7A37B-B07A-5847-94DB-4BB0FF256CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A85F77-02CA-A845-85B8-85FD2A857EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
     <sheet name="2021" sheetId="16" r:id="rId2"/>
+    <sheet name="2020" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Publicação</t>
   </si>
@@ -71,6 +72,30 @@
   </si>
   <si>
     <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>https://oialliance.org/about-us/board-of-directors/</t>
+  </si>
+  <si>
+    <t>https://www.crefito2.gov.br/home_profissional/comissoes_e_camaras_tecnicas</t>
+  </si>
+  <si>
+    <t>Ana Paula Antunes Ferreira, Egressa do Mestrado (2015) e Doutorado (2020)
+Presidente, Osteopathic International Alliance (2021-2022)</t>
+  </si>
+  <si>
+    <t>Carla Porto Lourenço, Egressa do Mestrado (2012) e Doutorado (2019)
+Membro Titular, Comissão da Câmara Técnica em Fisioterapia Vestibular do Conselho Regional de Fisioterapia e Terapia Ocupacional da 2ª Região</t>
+  </si>
+  <si>
+    <t>Gabriel Parisotto, Egressaodo Mestrado (2020) e Doutorando (2020-2024)
+Coordenador, Associação Brasileira de Fisioterapia Cardiorrespiratória e Fisioterapia em Terapia Intensiva, Núcleo Roraima</t>
   </si>
 </sst>
 </file>
@@ -126,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -150,10 +175,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -471,7 +502,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,32 +525,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44859</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44775</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{9EDAC93F-2024-3E4E-A30A-DCC391C33C96}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -528,16 +571,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F3023D-3C62-2D4A-A6DA-945DCC14E6EE}">
   <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44552</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{C59C1870-E380-064F-A734-5A72D9EDA9F1}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA2C3E8-8C9A-A945-8F03-D6519245A451}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="174.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -547,24 +646,24 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>44552</v>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>2020</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C59C1870-E380-064F-A734-5A72D9EDA9F1}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A85F77-02CA-A845-85B8-85FD2A857EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715FEE1-C695-5840-9413-770CCA892ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="15" r:id="rId1"/>
-    <sheet name="2021" sheetId="16" r:id="rId2"/>
-    <sheet name="2020" sheetId="17" r:id="rId3"/>
+    <sheet name="2023" sheetId="18" r:id="rId1"/>
+    <sheet name="2022" sheetId="15" r:id="rId2"/>
+    <sheet name="2021" sheetId="16" r:id="rId3"/>
+    <sheet name="2020" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Publicação</t>
   </si>
@@ -96,6 +97,12 @@
   <si>
     <t>Gabriel Parisotto, Egressaodo Mestrado (2020) e Doutorando (2020-2024)
 Coordenador, Associação Brasileira de Fisioterapia Cardiorrespiratória e Fisioterapia em Terapia Intensiva, Núcleo Roraima</t>
+  </si>
+  <si>
+    <t>O VICE-REITOR DA UNIVERSIDADE ESTADUAL DE RORAIMA, no uso das atribuições que lhe confere o Estatuto da UERR em seu art. 24, aprovado pelo Decreto no 24.022-E de 10 de outubro de 2017, o Decreto no 1549-P de 17 de novembro de 2021, atendendo ao disposto na Lei no 581/07 e suas alterações, Resolução CONUNI/UERR no. 002/2014, Resolução CONUNI/UERR no. 035/2008, alterada pela Resolução CONUNI/UERR no. 009/2009 e Resolução Ad Referendum no 19/2023 CONUNI/UERR, com o Edital Inicial no 30/2023/UERR, publicado no DOE no 4460 de 13/06/2023 e Edital de Homologação no 36/2023/UERR, publicado no DOE no 4481 de 14/07/2023, torna pública a CONVOCAÇÃO dos candidatos aprovados na Seleção Simplificada para Contratação de Professor do Quadro Temporário, na Modalidade de Professor Horista, para contratação por prazo determinado.</t>
+  </si>
+  <si>
+    <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
   </si>
 </sst>
 </file>
@@ -500,9 +507,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5E663-4C11-E547-A474-EFE8A42BDE66}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,6 +531,53 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45140</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{D94FECE8-FC96-1E49-8A0E-4377DAC08D7C}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>9</v>
@@ -568,7 +621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F3023D-3C62-2D4A-A6DA-945DCC14E6EE}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:C3"/>
@@ -625,7 +678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA2C3E8-8C9A-A945-8F03-D6519245A451}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715FEE1-C695-5840-9413-770CCA892ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BCFC41-58C6-8145-8E6A-78B5CE13749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Publicação</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sem4-PH5kSLbMdkmpIqrzZbCus4Ex-uX</t>
+  </si>
+  <si>
+    <t>International Journal of Osteopathic Medicine invitation to join the International Advisory Board</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5E663-4C11-E547-A474-EFE8A42BDE66}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,20 +537,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>45274</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>45140</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{D94FECE8-FC96-1E49-8A0E-4377DAC08D7C}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BCFC41-58C6-8145-8E6A-78B5CE13749A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9586DF6-582E-D04F-B3B2-3C24CB5E20A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Publicação</t>
   </si>
@@ -48,76 +48,80 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>A Secretária de Estado da Saúde de Roraima, no uso de suas atribuições legais conferidas pelo Decreto No169 -P, de 04 de fevereiro de 2022, publicado no Diário Oficial do Estado de Roraima - DOE RR de No 4134;
-Considerando o teor contido no Processo Eletrônico SEI N.o 20101.075635/2022.53 que trata de designação de servidores sem ônus para responder como coordenadores do Serviço de Fisioterapia do Hospital Geral de Roraima - HGR;
-RESOLVE:
-ART.1° - Designar sem ônus para Secretaria de Estado da Saúde de Roraima os servidores estaduais relacionados abaixo, para responder como coordenadores do Serviço de Fisioterapia do Hospital Geral de Roraima - HGR, conforme solicitação efetivada pelo Ofício 6525587.</t>
-  </si>
-  <si>
-    <t>EDITAL No12/2022
-PROCESSO SELETIVO SIMPLIFICADO PARA CONTRATAÇÃO DE PROFESSOR SUBSTITUTO
-CLASSIFICAÇÃO FINAL REGIÃO METROPOLITANA
-CAMPUS: Realengo
-DISCIPLINA: Estágio Supervisionado em Fisioterapia I, Humanização em Saúde, Educação e Promoção em Saúde, Projeto de Intervenção, Educação em Saúde, Promoção e Cuidado em Saúde</t>
-  </si>
-  <si>
-    <t>DECRETO N° 9.962
-Nomeia JOÃO PAULO FREITAS professor de Ensino Superior da UENP.
-O GOVERNADOR DO ESTADO DO PARANÁ, no uso de suas atribuições e ainda, em cumprimento à decisão judicial contida nos autos de no 0000497-41.2020.8.16.0018 do 1o Juizado Especial da Fazenda Pública de Londrina, conforme consubstanciada no protocolo no 18.343.020-3,</t>
-  </si>
-  <si>
-    <t>https://www.documentos.dioe.pr.gov.br/dioe/consultaPublicaPDF.do?action=pgLocalizar&amp;enviado=true&amp;numero=11083&amp;dataInicialEntrada=27%2F04%2F2023&amp;dataFinalEntrada=27%2F04%2F2023&amp;search=Jo%C3%A3o+Paulo+Freitas&amp;diarioCodigo=3&amp;submit=Localizar&amp;localizador=</t>
-  </si>
-  <si>
     <t>https://portal.ifrj.edu.br/sites/default/files/IFRJ/Processos%20Seletivos/edital_12.2022_-_resultado_classificacao_final_-_met.pdf</t>
   </si>
   <si>
     <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
   </si>
   <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>https://oialliance.org/about-us/board-of-directors/</t>
+  </si>
+  <si>
+    <t>https://www.crefito2.gov.br/home_profissional/comissoes_e_camaras_tecnicas</t>
+  </si>
+  <si>
+    <t>O VICE-REITOR DA UNIVERSIDADE ESTADUAL DE RORAIMA, no uso das atribuições que lhe confere o Estatuto da UERR em seu art. 24, aprovado pelo Decreto no 24.022-E de 10 de outubro de 2017, o Decreto no 1549-P de 17 de novembro de 2021, atendendo ao disposto na Lei no 581/07 e suas alterações, Resolução CONUNI/UERR no. 002/2014, Resolução CONUNI/UERR no. 035/2008, alterada pela Resolução CONUNI/UERR no. 009/2009 e Resolução Ad Referendum no 19/2023 CONUNI/UERR, com o Edital Inicial no 30/2023/UERR, publicado no DOE no 4460 de 13/06/2023 e Edital de Homologação no 36/2023/UERR, publicado no DOE no 4481 de 14/07/2023, torna pública a CONVOCAÇÃO dos candidatos aprovados na Seleção Simplificada para Contratação de Professor do Quadro Temporário, na Modalidade de Professor Horista, para contratação por prazo determinado.</t>
+  </si>
+  <si>
+    <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sem4-PH5kSLbMdkmpIqrzZbCus4Ex-uX</t>
+  </si>
+  <si>
+    <t>International Journal of Osteopathic Medicine invitation to join the International Advisory Board</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>25/10/2022</t>
+  </si>
+  <si>
+    <t>02/08/2022</t>
+  </si>
+  <si>
+    <t>https://assobrafir.com.br/regionais/roraima/</t>
+  </si>
+  <si>
+    <t>Gabriel Parisotto, Egresso do Mestrado (2020) e Doutorando (2020-2024). Coordenador, Associação Brasileira de Fisioterapia Cardiorrespiratória e Fisioterapia em Terapia Intensiva, Núcleo Roraima</t>
+  </si>
+  <si>
+    <t>A Secretária de Estado da Saúde de Roraima, no uso de suas atribuições legais conferidas pelo Decreto No169 -P, de 04 de fevereiro de 2022, publicado no Diário Oficial do Estado de Roraima - DOE RR de No 4134; Considerando o teor contido no Processo Eletrônico SEI N.o 20101.075635/2022.53 que trata de designação de servidores sem ônus para responder como coordenadores do Serviço de Fisioterapia do Hospital Geral de Roraima - HGR;
+RESOLVE: ART.1° - Designar sem ônus para Secretaria de Estado da Saúde de Roraima os servidores estaduais relacionados abaixo, para responder como coordenadores do Serviço de Fisioterapia do Hospital Geral de Roraima - HGR, conforme solicitação efetivada pelo Ofício 6525587.</t>
+  </si>
+  <si>
+    <t>EDITAL No12/2022 - PROCESSO SELETIVO SIMPLIFICADO PARA CONTRATAÇÃO DE PROFESSOR SUBSTITUTO - CLASSIFICAÇÃO FINAL REGIÃO METROPOLITANA - CAMPUS: Realengo - DISCIPLINA: Estágio Supervisionado em Fisioterapia I, Humanização em Saúde, Educação e Promoção em Saúde, Projeto de Intervenção, Educação em Saúde, Promoção e Cuidado em Saúde</t>
+  </si>
+  <si>
+    <t>Ana Paula Antunes Ferreira, Egressa do Mestrado (2015) e Doutorado (2020) - Presidente, Osteopathic International Alliance (2021-2022)</t>
+  </si>
+  <si>
+    <t>https://uenp.edu.br/publicacoes-oficiais-uenp/link-doc-gabinete/gabinete-editais/gabinete-editais-2022/20175-gabinete-edital-001-2022-gr-convoca-os-candidatos-relacionados-aprovados-em-concurso-publico-do-edital-de-abertura-n-030-2014/file</t>
+  </si>
+  <si>
+    <t>1. CONVOCAR os candidatos abaixo relacionados, aprovados e classificados no Concurso Público para Provimento do Cargo de Professor de Ensino Superior, para comparecer presencialmente na Reitoria da UENP, no dia 14/01/2022, às 09h00min, para o ato de posse e exercício no cargo, na forma do Capítulo IV da Lei Estadual no 6174/1970: João Paulo Freitas</t>
+  </si>
+  <si>
+    <t>07/01/2022</t>
+  </si>
+  <si>
+    <t>Carla Porto Lourenço, Egressa do Mestrado (2012) e Doutorado (2019) - Membro Titular, Comissão da Câmara Técnica em Fisioterapia Vestibular do Conselho Regional de Fisioterapia e Terapia Ocupacional da 2ª Região</t>
+  </si>
+  <si>
     <t>2022</t>
-  </si>
-  <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
-    <t>https://oialliance.org/about-us/board-of-directors/</t>
-  </si>
-  <si>
-    <t>https://www.crefito2.gov.br/home_profissional/comissoes_e_camaras_tecnicas</t>
-  </si>
-  <si>
-    <t>Ana Paula Antunes Ferreira, Egressa do Mestrado (2015) e Doutorado (2020)
-Presidente, Osteopathic International Alliance (2021-2022)</t>
-  </si>
-  <si>
-    <t>Carla Porto Lourenço, Egressa do Mestrado (2012) e Doutorado (2019)
-Membro Titular, Comissão da Câmara Técnica em Fisioterapia Vestibular do Conselho Regional de Fisioterapia e Terapia Ocupacional da 2ª Região</t>
-  </si>
-  <si>
-    <t>Gabriel Parisotto, Egressaodo Mestrado (2020) e Doutorando (2020-2024)
-Coordenador, Associação Brasileira de Fisioterapia Cardiorrespiratória e Fisioterapia em Terapia Intensiva, Núcleo Roraima</t>
-  </si>
-  <si>
-    <t>O VICE-REITOR DA UNIVERSIDADE ESTADUAL DE RORAIMA, no uso das atribuições que lhe confere o Estatuto da UERR em seu art. 24, aprovado pelo Decreto no 24.022-E de 10 de outubro de 2017, o Decreto no 1549-P de 17 de novembro de 2021, atendendo ao disposto na Lei no 581/07 e suas alterações, Resolução CONUNI/UERR no. 002/2014, Resolução CONUNI/UERR no. 035/2008, alterada pela Resolução CONUNI/UERR no. 009/2009 e Resolução Ad Referendum no 19/2023 CONUNI/UERR, com o Edital Inicial no 30/2023/UERR, publicado no DOE no 4460 de 13/06/2023 e Edital de Homologação no 36/2023/UERR, publicado no DOE no 4481 de 14/07/2023, torna pública a CONVOCAÇÃO dos candidatos aprovados na Seleção Simplificada para Contratação de Professor do Quadro Temporário, na Modalidade de Professor Horista, para contratação por prazo determinado.</t>
-  </si>
-  <si>
-    <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sem4-PH5kSLbMdkmpIqrzZbCus4Ex-uX</t>
-  </si>
-  <si>
-    <t>International Journal of Osteopathic Medicine invitation to join the International Advisory Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -166,18 +170,12 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -190,14 +188,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,43 +524,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45274</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>45140</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -571,69 +575,79 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:3" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44859</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44775</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" spans="1:3" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{9EDAC93F-2024-3E4E-A30A-DCC391C33C96}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -642,55 +656,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F3023D-3C62-2D4A-A6DA-945DCC14E6EE}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>44552</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{C59C1870-E380-064F-A734-5A72D9EDA9F1}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -704,32 +706,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>2020</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9586DF6-582E-D04F-B3B2-3C24CB5E20A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4688D04-32B2-644D-8493-CC66FEA5DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4688D04-32B2-644D-8493-CC66FEA5DDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A1667-33A3-504E-8E06-F392B45357AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -222,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1A1667-33A3-504E-8E06-F392B45357AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22C3DE-C0AB-CF4D-8E5D-8410AC205B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="18" r:id="rId1"/>
-    <sheet name="2022" sheetId="15" r:id="rId2"/>
-    <sheet name="2021" sheetId="16" r:id="rId3"/>
-    <sheet name="2020" sheetId="17" r:id="rId4"/>
+    <sheet name="2024" sheetId="19" r:id="rId1"/>
+    <sheet name="2023" sheetId="18" r:id="rId2"/>
+    <sheet name="2022" sheetId="15" r:id="rId3"/>
+    <sheet name="2021" sheetId="16" r:id="rId4"/>
+    <sheet name="2020" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Publicação</t>
   </si>
@@ -106,9 +107,6 @@
     <t>https://uenp.edu.br/publicacoes-oficiais-uenp/link-doc-gabinete/gabinete-editais/gabinete-editais-2022/20175-gabinete-edital-001-2022-gr-convoca-os-candidatos-relacionados-aprovados-em-concurso-publico-do-edital-de-abertura-n-030-2014/file</t>
   </si>
   <si>
-    <t>1. CONVOCAR os candidatos abaixo relacionados, aprovados e classificados no Concurso Público para Provimento do Cargo de Professor de Ensino Superior, para comparecer presencialmente na Reitoria da UENP, no dia 14/01/2022, às 09h00min, para o ato de posse e exercício no cargo, na forma do Capítulo IV da Lei Estadual no 6174/1970: João Paulo Freitas</t>
-  </si>
-  <si>
     <t>07/01/2022</t>
   </si>
   <si>
@@ -116,6 +114,18 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>CONVOCAR os candidatos abaixo relacionados, aprovados e classificados no Concurso Público para Provimento do Cargo de Professor de Ensino Superior, para comparecer presencialmente na Reitoria da UENP, no dia 14/01/2022, às 09h00min, para o ato de posse e exercício no cargo, na forma do Capítulo IV da Lei Estadual no 6174/1970: João Paulo Freitas</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>https://www.into.saude.gov.br/images/pdf/ensino/res_multiprofissional/DIVULGACAO-DO-RESULTADO-FINAL-DOS-PROCESSO-SELETIVO-DA-RMS.pdf</t>
+  </si>
+  <si>
+    <t>A Coordenação da Comissão de Residência Multiprofissional em Saúde (COREMU) do Instituto Nacional de Ortopedia e Traumatologia (INTO) do Ministério da Saúde, no uso de suas atribuições legais, considerando a publicação do EDITAL DO PROCESSO SELETIVO PARA RESIDÊNCIA MULTIPROFISSIONAL EM TRAUMATOLOGIA E ORTOPEDIA (RMS/INTO) DO INTO/MS – TURMA 2024/2026 em 15/01/2024, para a abertura de inscrições e normas para o Concurso público. JOÃO EDUARDO MACHADO DA COSTA ANTUNES</t>
   </si>
 </sst>
 </file>
@@ -517,10 +527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5E663-4C11-E547-A474-EFE8A42BDE66}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -541,6 +553,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5E663-4C11-E547-A474-EFE8A42BDE66}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>12</v>
@@ -572,7 +628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:C5"/>
@@ -600,7 +656,7 @@
     </row>
     <row r="2" spans="1:3" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -633,10 +689,10 @@
     </row>
     <row r="5" spans="1:3" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
@@ -653,7 +709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F3023D-3C62-2D4A-A6DA-945DCC14E6EE}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:C2"/>
@@ -698,7 +754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA2C3E8-8C9A-A945-8F03-D6519245A451}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -728,7 +784,7 @@
         <v>2020</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22C3DE-C0AB-CF4D-8E5D-8410AC205B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769C68B-BA97-2B40-A497-478A42F3A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024" sheetId="19" r:id="rId1"/>
-    <sheet name="2023" sheetId="18" r:id="rId2"/>
-    <sheet name="2022" sheetId="15" r:id="rId3"/>
-    <sheet name="2021" sheetId="16" r:id="rId4"/>
-    <sheet name="2020" sheetId="17" r:id="rId5"/>
+    <sheet name="Destaques" sheetId="19" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Publicação</t>
   </si>
@@ -74,18 +70,6 @@
   </si>
   <si>
     <t>International Journal of Osteopathic Medicine invitation to join the International Advisory Board</t>
-  </si>
-  <si>
-    <t>14/12/2023</t>
-  </si>
-  <si>
-    <t>12/08/2023</t>
-  </si>
-  <si>
-    <t>25/10/2022</t>
-  </si>
-  <si>
-    <t>02/08/2022</t>
   </si>
   <si>
     <t>https://assobrafir.com.br/regionais/roraima/</t>
@@ -107,9 +91,6 @@
     <t>https://uenp.edu.br/publicacoes-oficiais-uenp/link-doc-gabinete/gabinete-editais/gabinete-editais-2022/20175-gabinete-edital-001-2022-gr-convoca-os-candidatos-relacionados-aprovados-em-concurso-publico-do-edital-de-abertura-n-030-2014/file</t>
   </si>
   <si>
-    <t>07/01/2022</t>
-  </si>
-  <si>
     <t>Carla Porto Lourenço, Egressa do Mestrado (2012) e Doutorado (2019) - Membro Titular, Comissão da Câmara Técnica em Fisioterapia Vestibular do Conselho Regional de Fisioterapia e Terapia Ocupacional da 2ª Região</t>
   </si>
   <si>
@@ -119,13 +100,16 @@
     <t>CONVOCAR os candidatos abaixo relacionados, aprovados e classificados no Concurso Público para Provimento do Cargo de Professor de Ensino Superior, para comparecer presencialmente na Reitoria da UENP, no dia 14/01/2022, às 09h00min, para o ato de posse e exercício no cargo, na forma do Capítulo IV da Lei Estadual no 6174/1970: João Paulo Freitas</t>
   </si>
   <si>
-    <t>26/02/2024</t>
-  </si>
-  <si>
     <t>https://www.into.saude.gov.br/images/pdf/ensino/res_multiprofissional/DIVULGACAO-DO-RESULTADO-FINAL-DOS-PROCESSO-SELETIVO-DA-RMS.pdf</t>
   </si>
   <si>
     <t>A Coordenação da Comissão de Residência Multiprofissional em Saúde (COREMU) do Instituto Nacional de Ortopedia e Traumatologia (INTO) do Ministério da Saúde, no uso de suas atribuições legais, considerando a publicação do EDITAL DO PROCESSO SELETIVO PARA RESIDÊNCIA MULTIPROFISSIONAL EM TRAUMATOLOGIA E ORTOPEDIA (RMS/INTO) DO INTO/MS – TURMA 2024/2026 em 15/01/2024, para a abertura de inscrições e normas para o Concurso público. JOÃO EDUARDO MACHADO DA COSTA ANTUNES</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -178,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -193,9 +177,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -232,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,22 +509,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -553,246 +532,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5E663-4C11-E547-A474-EFE8A42BDE66}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F3023D-3C62-2D4A-A6DA-945DCC14E6EE}">
-  <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA2C3E8-8C9A-A945-8F03-D6519245A451}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769C68B-BA97-2B40-A497-478A42F3A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82956ECE-1778-154E-8CB5-C74F68EBB959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Destaques" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Publicação</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
-  </si>
-  <si>
-    <t>2021-2022</t>
   </si>
   <si>
     <t>https://oialliance.org/about-us/board-of-directors/</t>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>A Supervisora e Preceptora do PRM em Anestesiologia Iasmin Sindeaux Tem a honra de convida-lo Gabriel Parisotto, matricula 2301590, para ministrar uma aula de VENTILAÇÃO MECÂNICA na sala de estudo do Hospital Geral de Roraima para os residentes de Anestesiologia.</t>
+  </si>
+  <si>
+    <t>https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,40 +543,40 @@
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>4</v>
@@ -578,10 +584,10 @@
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>3</v>
@@ -589,46 +595,57 @@
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -642,6 +659,7 @@
     <hyperlink ref="C7" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
     <hyperlink ref="C3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
     <hyperlink ref="C2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82956ECE-1778-154E-8CB5-C74F68EBB959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D20EA6D-7062-6B40-B22F-BD82B9BC43C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Publicação</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>A Confederação Brasileira de Ciclismo, inscrita no CNPJ no 51.936.706.0001/09, com sede em Avenida Maringá, 627 salas 501, Jardim Dom Bosco, Londrina-PR, vem respeitosamente, informar que o profissional listado abaixo estará acompanhando na função de Fisioterapeuta na modalidade de BMX FREESTYLE PARK os atletas que estão na preparação e visando a conquista de uma vaga olímpica para os Jogos Olímpicos de Paris 2024 e como parte desta preparação e disputa pela vaga está prevista a participação do mesmo no evento listado abaixo: Camilo Zumbi Rafagnin.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-7FUkVSNizUsiaK5mI8t5GB5_bIhuGYd</t>
   </si>
 </sst>
 </file>
@@ -219,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -365,7 +371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -507,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,9 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -648,6 +656,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
@@ -660,6 +679,7 @@
     <hyperlink ref="C3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
     <hyperlink ref="C2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
     <hyperlink ref="C11" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D20EA6D-7062-6B40-B22F-BD82B9BC43C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F14E6-A206-1B40-8C60-6B15C89205D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Publicação</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-7FUkVSNizUsiaK5mI8t5GB5_bIhuGYd</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
   </si>
 </sst>
 </file>
@@ -225,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -265,7 +277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -371,7 +383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,165 +533,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="174.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
-    <hyperlink ref="C9" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
+    <hyperlink ref="D9" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F14E6-A206-1B40-8C60-6B15C89205D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01C861-C00C-7542-BCEB-D045DBCB7508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
-  <si>
-    <t>Publicação</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Documento</t>
   </si>
@@ -134,6 +131,33 @@
   </si>
   <si>
     <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>PORTARIA CREFITO-2 N° 054 DE 22 DE JULHO DE 2024. ALTERA A CÂMARA TÉCNICA DE FISIOTERAPIA TRAUMATO- ORTOPÉDICA DO CONSELHO REGIONAL DE FISIOTERAPIA E TERAPIA OCUPACIONAL DA 2a REGIÃO.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10_JDNNSZP9GvmzfB1Ouk3Gfh8J-6-N3K</t>
+  </si>
+  <si>
+    <t>PORTARIA CREFITO-2 N° 032 DE 15 DE MARÇO DE 2024. NOMEIA A CÂMARA TÉCNICA ESPORTIVA DO CONSELHO REGIONAL DE FISIOTERAPIA E TERAPIA OCUPACIONAL DA 2a REGIÃO.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10dyzqTiurEH9L7wqu1ZDgoAE-s5uD0k4</t>
+  </si>
+  <si>
+    <t>PORTARIA CREFITO-2 N° 030 DE 15 DE MARÇO DE 2024. NOMEIA A CÂMARA TÉCNICA DE FISIOTERAPIA VESTIBULAR DO CONSELHO REGIONAL DE FISIOTERAPIA E TERAPIA OCUPACIONAL DA 2a REGIÃO.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10fR1tOQQdsJIjgidz9ku6umOLh8Wl6Ur</t>
+  </si>
+  <si>
+    <t>PORTARIA CREFITO-2 N° 022 DE 15 DE MARÇO DE 2024. NOMEIA A CÂMARA TÉCNICA MISTA EM CUIDADOS PALIATIVOS DO CONSELHO REGIONAL DE FISIOTERAPIA E TERAPIA OCUPACIONAL DA 2a REGIÃO.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10dNFH0zYFtPyxjTsvrTmemR75SCi7yn_</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -237,9 +261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +301,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -383,7 +407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,16 +572,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -565,153 +589,209 @@
         <v>2020</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -727,6 +807,10 @@
     <hyperlink ref="D2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
     <hyperlink ref="D11" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{9B0F735B-0CEC-D04E-941C-3DABAF82EB8C}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01C861-C00C-7542-BCEB-D045DBCB7508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717B3BB-EC7F-264F-9750-5566E6597625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Documento</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Ano</t>
+  </si>
+  <si>
+    <t>Polônia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10rrH_AQuGE4Vwyofnt-aRfq-gksBGKxn</t>
+  </si>
+  <si>
+    <t>I am writing on behalf of the Józef Piłsudski University of Physical Education in Warsaw to extend an invitation to Prof. Dr. Frederico Barreto Kochem to join our esteemed faculty in teaching and researching Assistive Technologies for Physical Therapy.</t>
   </si>
 </sst>
 </file>
@@ -557,9 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -792,6 +803,20 @@
       </c>
       <c r="D16" s="4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -811,6 +836,7 @@
     <hyperlink ref="D14" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{062FB7B1-DD6C-F34A-966D-DC0B6EC1B55B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A717B3BB-EC7F-264F-9750-5566E6597625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBA865-AA31-FA44-9DE4-4AF8B6B11D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Documento</t>
   </si>
@@ -167,6 +167,30 @@
   </si>
   <si>
     <t>I am writing on behalf of the Józef Piłsudski University of Physical Education in Warsaw to extend an invitation to Prof. Dr. Frederico Barreto Kochem to join our esteemed faculty in teaching and researching Assistive Technologies for Physical Therapy.</t>
+  </si>
+  <si>
+    <t>Consórcio Acadêmico Brasileiro de Saúde Integrativa (CABSIN) - Membros do Comitê de Osteopatia: Ana Paula Antunes Ferreira, Coordenadora Geral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. JOÃO EDUARDO DE AZEVEDO VIEIRA (Diretor Presidente), DRA. CYNTHIA MARA ZILLI (Diretora Financeira), DR. EDUARDO GALLAS LEIVAS (2° Diretor Financeiro) - Gestão 2021-2025 Conselho Administrativo Geral ABRAFIT 2021-2025 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JYAddhE7jx2dg34ngb2hI9O0P-eQUFar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JGBFHgEphOSBfW9PmZyBAgtUGu2-Y3lV</t>
+  </si>
+  <si>
+    <t>O PRESIDENTE DA FEDERAÇÃO DE HANDEBOL DO ESTADO DO RIO DE JANEIRO, no uso de suas atribuições legais e que lhe são conferidas, resolve APRESENTAR convocação final da Seleção Carioca de Handebol Juvenil Feminina para o Campeonato Brasileiro de Seleções Juvenil a ser realizado no período de 16 a 21 de Dezembro de 2024, na cidade de Juiz de Fora-MG</t>
+  </si>
+  <si>
+    <t>O PRESIDENTE DA FEDERAÇÃO DE HANDEBOL DO ESTADO DO RIO DE JANEIRO, no uso de suas atribuições legais e que lhe são conferidas, resolve APRESENTAR convocação final da Seleção Carioca de Handebol Juvenil Masculina para o Campeonato Brasileiro de Seleções Juvenil a ser realizado no período de 16 a 21 de Dezembro de 2024, na cidade de Juiz de Fora-MG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Lag3ZtPCaTpfJ4BFXuSHEdeS9sBqPyXS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LeZ9YbKduOfF7IIAoMnN1GXipdmYr5te</t>
   </si>
 </sst>
 </file>
@@ -566,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,19 +649,19 @@
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
@@ -652,87 +676,87 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -740,13 +764,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -754,27 +778,27 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -782,61 +806,125 @@
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>42</v>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="A2:A21"/>
+    <sortCondition ref="B2:B21"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
-    <hyperlink ref="D9" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
     <hyperlink ref="D5" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
     <hyperlink ref="D3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
     <hyperlink ref="D2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{9B0F735B-0CEC-D04E-941C-3DABAF82EB8C}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{062FB7B1-DD6C-F34A-966D-DC0B6EC1B55B}"/>
+    <hyperlink ref="D13" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{9B0F735B-0CEC-D04E-941C-3DABAF82EB8C}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{062FB7B1-DD6C-F34A-966D-DC0B6EC1B55B}"/>
+    <hyperlink ref="D4" r:id="rId17" xr:uid="{46721492-991E-AD43-B339-7468EB774631}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{1BCEC1B2-DF85-B94A-B3C7-F25C2C5E40BD}"/>
+    <hyperlink ref="D16" r:id="rId19" xr:uid="{8D98E7D6-747F-D043-AF95-4060F403B74F}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{855DDF5A-065C-2242-8422-FA357F625518}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CBA865-AA31-FA44-9DE4-4AF8B6B11D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4F6148-A7F8-6D46-A943-D8307ED19F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Destaques" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Documento</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1LeZ9YbKduOfF7IIAoMnN1GXipdmYr5te</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>HOMOLOGAÇÃO DE CHAPA ELEITORAL E CONSELHO FISCAL - A Comissão Eleitoral da ABRAFIT-Associação Brasileira de Fisioterapia do Trabalho, no uso de suas atribuições e em conformidade com o edital de convocação para processo eleitoral do Conselho ABRAFIT: gestão 2025-2029, torna público o resultado do pleito realizado em Assembléia Extraordinária ocorrida no dia 29 de novembro de 2024, no auditório da UNIP Indianápolis, situada na rua Dr Bacelar, 1212, Vila Clementino SP.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BYW6J76rwuegWBHIPT8jn7bcDvfwZBkk</t>
   </si>
 </sst>
 </file>
@@ -294,9 +303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +343,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +449,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,11 +599,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -897,6 +904,20 @@
       </c>
       <c r="D21" s="4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -925,6 +946,7 @@
     <hyperlink ref="D14" r:id="rId18" xr:uid="{1BCEC1B2-DF85-B94A-B3C7-F25C2C5E40BD}"/>
     <hyperlink ref="D16" r:id="rId19" xr:uid="{8D98E7D6-747F-D043-AF95-4060F403B74F}"/>
     <hyperlink ref="D17" r:id="rId20" xr:uid="{855DDF5A-065C-2242-8422-FA357F625518}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4F6148-A7F8-6D46-A943-D8307ED19F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBF516-D47A-8244-8D1E-807F2B77182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Documento</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1BYW6J76rwuegWBHIPT8jn7bcDvfwZBkk</t>
+  </si>
+  <si>
+    <t>Macquarie University Postgraduate Research Fund 2023 – Round 2</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VLbemIB9Ubi_3qNdOLX8dtRNFZhPug5a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hgA3uz5QX_gWvlntfxlAYpGubyb7Wisg</t>
+  </si>
+  <si>
+    <t>Convite para compor a mesa redonda: Explorando o uso ético da Inteligência Artificial na Pesquisa Acadêmica: o que o pós-graduando e pequisadores precisam saber, do II FÓRUM DISCENTE DA ABRAPG-FT.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -283,6 +298,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -303,9 +327,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +367,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +473,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,9 +623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -724,46 +750,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -771,69 +797,69 @@
         <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -841,27 +867,27 @@
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -869,13 +895,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -883,13 +909,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -897,56 +923,86 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
-    <sortCondition ref="A2:A21"/>
-    <sortCondition ref="B2:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition ref="A2:A22"/>
+    <sortCondition ref="B2:B22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
+    <hyperlink ref="D11" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
     <hyperlink ref="D5" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
     <hyperlink ref="D8" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
     <hyperlink ref="D6" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
     <hyperlink ref="D3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
     <hyperlink ref="D2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{9B0F735B-0CEC-D04E-941C-3DABAF82EB8C}"/>
-    <hyperlink ref="D20" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
-    <hyperlink ref="D15" r:id="rId16" xr:uid="{062FB7B1-DD6C-F34A-966D-DC0B6EC1B55B}"/>
+    <hyperlink ref="D14" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{9B0F735B-0CEC-D04E-941C-3DABAF82EB8C}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
+    <hyperlink ref="D16" r:id="rId16" xr:uid="{062FB7B1-DD6C-F34A-966D-DC0B6EC1B55B}"/>
     <hyperlink ref="D4" r:id="rId17" xr:uid="{46721492-991E-AD43-B339-7468EB774631}"/>
-    <hyperlink ref="D14" r:id="rId18" xr:uid="{1BCEC1B2-DF85-B94A-B3C7-F25C2C5E40BD}"/>
-    <hyperlink ref="D16" r:id="rId19" xr:uid="{8D98E7D6-747F-D043-AF95-4060F403B74F}"/>
-    <hyperlink ref="D17" r:id="rId20" xr:uid="{855DDF5A-065C-2242-8422-FA357F625518}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
+    <hyperlink ref="D15" r:id="rId18" xr:uid="{1BCEC1B2-DF85-B94A-B3C7-F25C2C5E40BD}"/>
+    <hyperlink ref="D17" r:id="rId19" xr:uid="{8D98E7D6-747F-D043-AF95-4060F403B74F}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{855DDF5A-065C-2242-8422-FA357F625518}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{0A75F6CF-698C-0E49-8BE6-37594FF0EBF7}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FBF516-D47A-8244-8D1E-807F2B77182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CB9E46-9B6C-084C-A2EA-6F5CDF96601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Documento</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Convite para compor a mesa redonda: Explorando o uso ético da Inteligência Artificial na Pesquisa Acadêmica: o que o pós-graduando e pequisadores precisam saber, do II FÓRUM DISCENTE DA ABRAPG-FT.</t>
+  </si>
+  <si>
+    <t>EMPRESA BRASILEIRA DE SERVIÇOS HOSPITALARES – EBSERH - EDITAL No 03 – EBSERH/NACIONAL – ÁREA ASSISTENCIAL, DE 18 DE DEZEMBRO DE 2024 - FISIOTERAPEUTA - HU-UFRR - BOA VISTA (RR) - Gabriel Parisotto 1o LUGAR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AyE8RxUD8jfaudCtJFfgBBLVYsi4KlIH</t>
   </si>
 </sst>
 </file>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,6 +978,20 @@
       </c>
       <c r="D24" s="4" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1003,6 +1023,7 @@
     <hyperlink ref="D23" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
     <hyperlink ref="D9" r:id="rId22" xr:uid="{0A75F6CF-698C-0E49-8BE6-37594FF0EBF7}"/>
     <hyperlink ref="D24" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{F0E7CF65-3D00-0A49-8F24-8D7B51C3C4F1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CB9E46-9B6C-084C-A2EA-6F5CDF96601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFC2DE-941B-3049-B7CD-EAFF9F9CB45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Destaques" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Documento</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1AyE8RxUD8jfaudCtJFfgBBLVYsi4KlIH</t>
+  </si>
+  <si>
+    <t>https://assobrafir.com.br/confir2025/comissoes/</t>
+  </si>
+  <si>
+    <t>V Congresso Nortista de Fisioterapia Respiratória, Cardiovascular e em Terapia Intensiva – CONFIR. COMISSÃO ORGANIZADORA: Larissa Doebeli (AP), Ana Paula Romão (AP), Laura Tomazi (PA), Jerônimo Correia (AM), Gabriel Parisotto (RR)</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,6 +998,20 @@
       </c>
       <c r="D25" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1024,6 +1044,7 @@
     <hyperlink ref="D9" r:id="rId22" xr:uid="{0A75F6CF-698C-0E49-8BE6-37594FF0EBF7}"/>
     <hyperlink ref="D24" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
     <hyperlink ref="D25" r:id="rId24" xr:uid="{F0E7CF65-3D00-0A49-8F24-8D7B51C3C4F1}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{A55C31AF-6401-6740-ADFD-C7A26F17E296}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFC2DE-941B-3049-B7CD-EAFF9F9CB45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D5069-06AF-C34F-BE54-DB6421729A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Documento</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>V Congresso Nortista de Fisioterapia Respiratória, Cardiovascular e em Terapia Intensiva – CONFIR. COMISSÃO ORGANIZADORA: Larissa Doebeli (AP), Ana Paula Romão (AP), Laura Tomazi (PA), Jerônimo Correia (AM), Gabriel Parisotto (RR)</t>
+  </si>
+  <si>
+    <t>Solicitação de Intercâmbio Acadêmico – Discente Julliana Vieira Leão - Programa de Pós-Graduação em Biologia Parasitária na Amazônia (PPGBPA), da Universidade do Estado do Pará (UEPA) em convênio com o Instituto Evandro Chagas (IEC)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ifLDLR0Hbq9VoQyGzvMLzu-SGB8XApke</t>
+  </si>
+  <si>
+    <t>• Presidente da Assembleia Legislativa do Estado de Roraima, Deputado Soldado Sampaio, e a Deputada Angela Águida Portella, autora da proposição, convidam para a Sessão Especial, de homenagem com Comenda "Orgulho de Roraima", aos Fisioterapeutas e Terapeutas Ocupacionais do Estado de Roraima, a ser realizada às 9h30 do dia 23 de outubro de 2025, no Plenário Deputada Noêmia Bastos Amazonas.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hWiGcVIMYw9QnJCvabTkzp15UhQnbgi1</t>
   </si>
 </sst>
 </file>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,6 +1024,34 @@
       </c>
       <c r="D26" s="4" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1045,6 +1085,8 @@
     <hyperlink ref="D24" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
     <hyperlink ref="D25" r:id="rId24" xr:uid="{F0E7CF65-3D00-0A49-8F24-8D7B51C3C4F1}"/>
     <hyperlink ref="D26" r:id="rId25" xr:uid="{A55C31AF-6401-6740-ADFD-C7A26F17E296}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{15BFB900-79A6-CD40-B427-6244EE237FB2}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{D15FFA2B-0E62-9649-A63B-F2B040EAFE98}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D5069-06AF-C34F-BE54-DB6421729A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7C3497-4173-2A47-9B5F-F3C885A3F92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>Documento</t>
   </si>
@@ -235,10 +235,16 @@
     <t>https://drive.google.com/file/d/1ifLDLR0Hbq9VoQyGzvMLzu-SGB8XApke</t>
   </si>
   <si>
-    <t>• Presidente da Assembleia Legislativa do Estado de Roraima, Deputado Soldado Sampaio, e a Deputada Angela Águida Portella, autora da proposição, convidam para a Sessão Especial, de homenagem com Comenda "Orgulho de Roraima", aos Fisioterapeutas e Terapeutas Ocupacionais do Estado de Roraima, a ser realizada às 9h30 do dia 23 de outubro de 2025, no Plenário Deputada Noêmia Bastos Amazonas.</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1hWiGcVIMYw9QnJCvabTkzp15UhQnbgi1</t>
+  </si>
+  <si>
+    <t>Presidente da Assembleia Legislativa do Estado de Roraima, Deputado Soldado Sampaio, e a Deputada Angela Águida Portella, autora da proposição, convidam para a Sessão Especial, de homenagem com Comenda "Orgulho de Roraima", aos Fisioterapeutas e Terapeutas Ocupacionais do Estado de Roraima, a ser realizada às 9h30 do dia 23 de outubro de 2025, no Plenário Deputada Noêmia Bastos Amazonas.</t>
+  </si>
+  <si>
+    <t>Moção - Câmara Municipal de Niterói - Temos a honra de comunicar a Vossa Senhoria que este Legislativo aprovou na Reunião Ordinária d o dia 29 de outubro do corrente ano, a proposição sob forma de MOÇÃO DE APLAUSOS N° 2217/2025, de autoria do nobre VEREADOR ROMÉRIO DUARTE, à DRA. VANESSA PAES FERNANDES, fisioterapeuta, em reconhecimento à sua trajetória profissional e à relevante contribuição à promoção da saúde e da qualidade de vida da população niteroiense.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dXdDOaV1p0m8BxHHd4iFBgHlBwHnQVJ8</t>
   </si>
 </sst>
 </file>
@@ -647,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,13 +1051,27 @@
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>67</v>
+    </row>
+    <row r="29" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1087,6 +1107,7 @@
     <hyperlink ref="D26" r:id="rId25" xr:uid="{A55C31AF-6401-6740-ADFD-C7A26F17E296}"/>
     <hyperlink ref="D27" r:id="rId26" xr:uid="{15BFB900-79A6-CD40-B427-6244EE237FB2}"/>
     <hyperlink ref="D28" r:id="rId27" xr:uid="{D15FFA2B-0E62-9649-A63B-F2B040EAFE98}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{C56C4BDF-4751-4F43-9716-946EAA74C119}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7C3497-4173-2A47-9B5F-F3C885A3F92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C230379-353B-6943-AF78-29D89932B897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Documento</t>
   </si>
@@ -245,6 +245,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1dXdDOaV1p0m8BxHHd4iFBgHlBwHnQVJ8</t>
+  </si>
+  <si>
+    <t>Conselho Regional de Fisioterapia e Terapia Ocupacional da 2ª Região - Certificado - Conselho Regional de Fisioterapia e Terapia Ocupacional da 2ª Região - Crefito-2 presta esta homenagem ao DR. RODRIGO RIBEIRO pela sua atuação em prol da Fisioterapia baseada em evidências, do desenvolvimento da ciência e sua contribuição na formação de profissionais de qualidade.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18c9tYXxAtap0gNVMCB01vBJX7yw8bLvG</t>
+  </si>
+  <si>
+    <t>Gustavo Felicio Telles - 1o lugar - Fisioterapeuta (Generalista) - CONCURSO PÚBLICO N° 02/2025 EDITAL Nº 33/2025 – HOMOLOGAÇÃO DO RESULTADO FINAL DO CONCURSO PÚBLICO – CARGOS COM 2ª ETAPA (NÍVEL SUPERIOR)</t>
+  </si>
+  <si>
+    <t>Yuri Rodrigues Luz de Araujo - 2o lugar - Fisioterapeuta (Intensivista Adulto/ Emergência Adulto e Pediátrico) - CONCURSO PÚBLICO N° 02/2025 EDITAL Nº 33/2025 – HOMOLOGAÇÃO DO RESULTADO FINAL DO CONCURSO PÚBLICO – CARGOS COM 2ª ETAPA (NÍVEL SUPERIOR)</t>
+  </si>
+  <si>
+    <t>https://concursos-publicacoes.s3.amazonaws.com/984/publico/984_Edital_33-2025_Homologacao_Final_Fundatec_COMBINADO_68e7d11e9da02.pdf?idpub=504038</t>
   </si>
 </sst>
 </file>
@@ -653,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,6 +1087,48 @@
       </c>
       <c r="D29" s="4" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1108,6 +1165,9 @@
     <hyperlink ref="D27" r:id="rId26" xr:uid="{15BFB900-79A6-CD40-B427-6244EE237FB2}"/>
     <hyperlink ref="D28" r:id="rId27" xr:uid="{D15FFA2B-0E62-9649-A63B-F2B040EAFE98}"/>
     <hyperlink ref="D29" r:id="rId28" xr:uid="{C56C4BDF-4751-4F43-9716-946EAA74C119}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{5A04E172-7004-AE4A-BF19-4B20F3B6AE93}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{63D902FB-2534-9E42-9D5F-4C8AC11C2CB4}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{0A3EAD6F-0465-B94D-BA21-9E3BDA12BA4A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C230379-353B-6943-AF78-29D89932B897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA6C17-75C4-D54C-AD45-B4B62D03B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Documento</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>https://concursos-publicacoes.s3.amazonaws.com/984/publico/984_Edital_33-2025_Homologacao_Final_Fundatec_COMBINADO_68e7d11e9da02.pdf?idpub=504038</t>
+  </si>
+  <si>
+    <t>https://www.hsu.ac.uk/hsu-innovation-chosen-for-global-who-showcase-on-traditional-medicine/</t>
+  </si>
+  <si>
+    <t>HSU innovation chosen for global WHO showcase on traditional medicine - Ana Paula Antunes Ferreira</t>
+  </si>
+  <si>
+    <t>https://www3.ufac.br/propeg/2025/edital-de-credencimento-de-docente-mpecim-01-2025/resultadopreliminar-1.pdf</t>
+  </si>
+  <si>
+    <t>A comissão de credenciamento, aprovada em colegiado do programa de Pós-graduação do Mestrado Profissional em Ensino de Ciências e Matemática, da Universidade Federal do Acre (Ufac), considerando o que dispõe o Regimento do Mpecim, as normas da Capes, o Documento da área de Ensino/Capes referente ao quadriênio 2025-2028 e o estabelecido pela Resolução Mpecim nº 01/2018, que aprovou a criação de regras para Credenciamento e Descredenciamento de docentes permanentes neste Programa de Pós-Graduação, torna público o RESULTADO PRELIMINAR do edital de Credenciamento Docente.</t>
   </si>
 </sst>
 </file>
@@ -668,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1129,6 +1141,34 @@
       </c>
       <c r="D32" s="4" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1168,6 +1208,8 @@
     <hyperlink ref="D30" r:id="rId29" xr:uid="{5A04E172-7004-AE4A-BF19-4B20F3B6AE93}"/>
     <hyperlink ref="D31" r:id="rId30" xr:uid="{63D902FB-2534-9E42-9D5F-4C8AC11C2CB4}"/>
     <hyperlink ref="D32" r:id="rId31" xr:uid="{0A3EAD6F-0465-B94D-BA21-9E3BDA12BA4A}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{B4A849B0-1E1D-4D4B-A4FF-7ED74C3ADCBB}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{C96E43DE-D929-694C-8533-F7133A18287A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA6C17-75C4-D54C-AD45-B4B62D03B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5990864-1D65-4B47-AC82-93F1A0AFC53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>Documento</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>A comissão de credenciamento, aprovada em colegiado do programa de Pós-graduação do Mestrado Profissional em Ensino de Ciências e Matemática, da Universidade Federal do Acre (Ufac), considerando o que dispõe o Regimento do Mpecim, as normas da Capes, o Documento da área de Ensino/Capes referente ao quadriênio 2025-2028 e o estabelecido pela Resolução Mpecim nº 01/2018, que aprovou a criação de regras para Credenciamento e Descredenciamento de docentes permanentes neste Programa de Pós-Graduação, torna público o RESULTADO PRELIMINAR do edital de Credenciamento Docente.</t>
+  </si>
+  <si>
+    <t>Global Evidence-Based Neonatal Osteopathic Care Framework - Scaling Safe Manual Interventions for Improved Health Outcomes</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/osteopata-ana-paula-ferreira_who-tcim-traditionalmedicine-activity-7407819509782200320-SoU5?utm_source=share&amp;utm_medium=member_ios&amp;rcm=ACoAAAe7cLQB9WcN4xayweXYibNwN39cEUn9N04</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -680,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,6 +1178,20 @@
       </c>
       <c r="D34" s="4" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1210,6 +1233,7 @@
     <hyperlink ref="D32" r:id="rId31" xr:uid="{0A3EAD6F-0465-B94D-BA21-9E3BDA12BA4A}"/>
     <hyperlink ref="D33" r:id="rId32" xr:uid="{B4A849B0-1E1D-4D4B-A4FF-7ED74C3ADCBB}"/>
     <hyperlink ref="D34" r:id="rId33" xr:uid="{C96E43DE-D929-694C-8533-F7133A18287A}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{3B1BE636-2D48-9046-8ACB-F8255380A361}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5990864-1D65-4B47-AC82-93F1A0AFC53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D77C5-9C80-A047-A550-C5713F0B7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
   <si>
     <t>Documento</t>
   </si>
@@ -268,9 +268,6 @@
     <t>HSU innovation chosen for global WHO showcase on traditional medicine - Ana Paula Antunes Ferreira</t>
   </si>
   <si>
-    <t>https://www3.ufac.br/propeg/2025/edital-de-credencimento-de-docente-mpecim-01-2025/resultadopreliminar-1.pdf</t>
-  </si>
-  <si>
     <t>A comissão de credenciamento, aprovada em colegiado do programa de Pós-graduação do Mestrado Profissional em Ensino de Ciências e Matemática, da Universidade Federal do Acre (Ufac), considerando o que dispõe o Regimento do Mpecim, as normas da Capes, o Documento da área de Ensino/Capes referente ao quadriênio 2025-2028 e o estabelecido pela Resolução Mpecim nº 01/2018, que aprovou a criação de regras para Credenciamento e Descredenciamento de docentes permanentes neste Programa de Pós-Graduação, torna público o RESULTADO PRELIMINAR do edital de Credenciamento Docente.</t>
   </si>
   <si>
@@ -281,6 +278,16 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>https://www3.ufac.br/propeg/2025/edital-de-credencimento-de-docente-mpecim-01-2025/resultadofinal-1.pdf</t>
+  </si>
+  <si>
+    <t>https://abrafitobr.com.br/wp-content/uploads/1651154634_Portaria_normativa_02_2022_1.pdf</t>
+  </si>
+  <si>
+    <t>A presidente da Associação Brasileira de Fisioterapia Traumato-ortopédica, no uso de suas atribuições estatutárias, Resolve, Art 1º Estabelecer os coordenadores dos Grupos Especiais, nas temáticas que
+envolvem a especialidade, no âmbito da Associação Brasileira de Fisioterapia Traumato-ortopédica e suas diretorias estaduais para o biênio 2022-23, sendo eles: Choosing Wisely: Coordenador: Renato Soares - SP, Ney Meziat - RJ, Felipe Reis - RJ.</t>
   </si>
 </sst>
 </file>
@@ -689,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,60 +823,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -877,69 +884,69 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -947,27 +954,27 @@
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -975,13 +982,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -989,13 +996,13 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1003,41 +1010,41 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1045,13 +1052,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1059,13 +1066,13 @@
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1073,69 +1080,69 @@
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1143,7 +1150,7 @@
         <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>29</v>
@@ -1152,88 +1159,103 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
-    <sortCondition ref="A2:A22"/>
-    <sortCondition ref="B2:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+    <sortCondition ref="A2:A23"/>
+    <sortCondition ref="B2:B23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
-    <hyperlink ref="D11" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
+    <hyperlink ref="D12" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
     <hyperlink ref="D5" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
     <hyperlink ref="D8" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
     <hyperlink ref="D6" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
     <hyperlink ref="D3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
     <hyperlink ref="D2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
-    <hyperlink ref="D14" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
-    <hyperlink ref="D22" r:id="rId12" xr:uid="{9B0F735B-0CEC-D04E-941C-3DABAF82EB8C}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
-    <hyperlink ref="D20" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
-    <hyperlink ref="D19" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
-    <hyperlink ref="D16" r:id="rId16" xr:uid="{062FB7B1-DD6C-F34A-966D-DC0B6EC1B55B}"/>
+    <hyperlink ref="D15" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{D037A7B7-7E95-7146-A12C-257F81E3B4C5}"/>
+    <hyperlink ref="D23" r:id="rId12" xr:uid="{9B0F735B-0CEC-D04E-941C-3DABAF82EB8C}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{4562FB20-F698-5F40-AF0D-D4E4D4EE34D1}"/>
+    <hyperlink ref="D21" r:id="rId14" xr:uid="{88FAD680-0702-FC45-B144-E97E6BB0E748}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{19022544-5ECF-054C-9F4C-1B9A18A69FA8}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{062FB7B1-DD6C-F34A-966D-DC0B6EC1B55B}"/>
     <hyperlink ref="D4" r:id="rId17" xr:uid="{46721492-991E-AD43-B339-7468EB774631}"/>
-    <hyperlink ref="D15" r:id="rId18" xr:uid="{1BCEC1B2-DF85-B94A-B3C7-F25C2C5E40BD}"/>
-    <hyperlink ref="D17" r:id="rId19" xr:uid="{8D98E7D6-747F-D043-AF95-4060F403B74F}"/>
-    <hyperlink ref="D18" r:id="rId20" xr:uid="{855DDF5A-065C-2242-8422-FA357F625518}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
-    <hyperlink ref="D9" r:id="rId22" xr:uid="{0A75F6CF-698C-0E49-8BE6-37594FF0EBF7}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{F0E7CF65-3D00-0A49-8F24-8D7B51C3C4F1}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{A55C31AF-6401-6740-ADFD-C7A26F17E296}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{15BFB900-79A6-CD40-B427-6244EE237FB2}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{D15FFA2B-0E62-9649-A63B-F2B040EAFE98}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{C56C4BDF-4751-4F43-9716-946EAA74C119}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{5A04E172-7004-AE4A-BF19-4B20F3B6AE93}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{63D902FB-2534-9E42-9D5F-4C8AC11C2CB4}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{0A3EAD6F-0465-B94D-BA21-9E3BDA12BA4A}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{B4A849B0-1E1D-4D4B-A4FF-7ED74C3ADCBB}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{C96E43DE-D929-694C-8533-F7133A18287A}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{3B1BE636-2D48-9046-8ACB-F8255380A361}"/>
+    <hyperlink ref="D16" r:id="rId18" xr:uid="{1BCEC1B2-DF85-B94A-B3C7-F25C2C5E40BD}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{8D98E7D6-747F-D043-AF95-4060F403B74F}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{855DDF5A-065C-2242-8422-FA357F625518}"/>
+    <hyperlink ref="D24" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
+    <hyperlink ref="D10" r:id="rId22" xr:uid="{0A75F6CF-698C-0E49-8BE6-37594FF0EBF7}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{F0E7CF65-3D00-0A49-8F24-8D7B51C3C4F1}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{A55C31AF-6401-6740-ADFD-C7A26F17E296}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{15BFB900-79A6-CD40-B427-6244EE237FB2}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{D15FFA2B-0E62-9649-A63B-F2B040EAFE98}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{C56C4BDF-4751-4F43-9716-946EAA74C119}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{5A04E172-7004-AE4A-BF19-4B20F3B6AE93}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{63D902FB-2534-9E42-9D5F-4C8AC11C2CB4}"/>
+    <hyperlink ref="D33" r:id="rId31" xr:uid="{0A3EAD6F-0465-B94D-BA21-9E3BDA12BA4A}"/>
+    <hyperlink ref="D34" r:id="rId32" xr:uid="{B4A849B0-1E1D-4D4B-A4FF-7ED74C3ADCBB}"/>
+    <hyperlink ref="D36" r:id="rId33" xr:uid="{3B1BE636-2D48-9046-8ACB-F8255380A361}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{C0AAAFD9-4A51-FE4E-ACCC-DF3E0086CCE9}"/>
+    <hyperlink ref="D9" r:id="rId35" xr:uid="{CBF5A22B-A747-014F-9236-71EF22A462E5}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D77C5-9C80-A047-A550-C5713F0B7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF4D55-BEA7-F84C-B55D-49944687C23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
   <si>
     <t>Documento</t>
   </si>
@@ -288,6 +288,15 @@
   <si>
     <t>A presidente da Associação Brasileira de Fisioterapia Traumato-ortopédica, no uso de suas atribuições estatutárias, Resolve, Art 1º Estabelecer os coordenadores dos Grupos Especiais, nas temáticas que
 envolvem a especialidade, no âmbito da Associação Brasileira de Fisioterapia Traumato-ortopédica e suas diretorias estaduais para o biênio 2022-23, sendo eles: Choosing Wisely: Coordenador: Renato Soares - SP, Ney Meziat - RJ, Felipe Reis - RJ.</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>https://www.gov.br/ebserh/pt-br/hospitais-universitarios/regiao-norte/hu-ufrr/acesso-a-informacao/boletim-de-servico/2026-1/boletim-de-servico-ndeg-75-hu-ufrr-12-01-2026.pdf/view</t>
+  </si>
+  <si>
+    <t>A Chefe da Divisão de Gestão de Pessoas do Hospital Universitário da Universidade Federal de Roraima – HUUFRR, no uso das atribuições conferidas pela Portaria de subdelegação n.º 45, de 26 de maio de 2025, publicada no Boletim De Serviço Extraordinário nº 19, de 28 de maio de 2025, e Considerando o processo SEI de n° 23876.000249/2025-69, resolve: Art. 1º Designar Gabriel Parisotto, matrícula Siape nº 348****, substituto do cargo vago de Chefe da Unidade Multiprofissional, do Setor de Cuidados Especializados, da Divisão de Gestão do Cuidado e Apoio Diagnóstico e Terapêutico, da Gerência de Atenção a Saúde do Hospital Universitário da Universidade Federal de Roraima (HU-UFRR). Art. 2º Esta Portaria-SEI entra em vigor a partir da data de publicação.</t>
   </si>
 </sst>
 </file>
@@ -696,11 +705,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1213,6 +1220,20 @@
       </c>
       <c r="D36" s="4" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1256,6 +1277,7 @@
     <hyperlink ref="D36" r:id="rId33" xr:uid="{3B1BE636-2D48-9046-8ACB-F8255380A361}"/>
     <hyperlink ref="D35" r:id="rId34" xr:uid="{C0AAAFD9-4A51-FE4E-ACCC-DF3E0086CCE9}"/>
     <hyperlink ref="D9" r:id="rId35" xr:uid="{CBF5A22B-A747-014F-9236-71EF22A462E5}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{E2D6568A-D482-AF4D-B1A9-813FBC4D158C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Destaques.xlsx
+++ b/docs/PPG/Destaques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF4D55-BEA7-F84C-B55D-49944687C23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638E084-158F-CC41-A3AC-91DFF5B19F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="980" yWindow="680" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Destaques" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
   <si>
     <t>Documento</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>A Chefe da Divisão de Gestão de Pessoas do Hospital Universitário da Universidade Federal de Roraima – HUUFRR, no uso das atribuições conferidas pela Portaria de subdelegação n.º 45, de 26 de maio de 2025, publicada no Boletim De Serviço Extraordinário nº 19, de 28 de maio de 2025, e Considerando o processo SEI de n° 23876.000249/2025-69, resolve: Art. 1º Designar Gabriel Parisotto, matrícula Siape nº 348****, substituto do cargo vago de Chefe da Unidade Multiprofissional, do Setor de Cuidados Especializados, da Divisão de Gestão do Cuidado e Apoio Diagnóstico e Terapêutico, da Gerência de Atenção a Saúde do Hospital Universitário da Universidade Federal de Roraima (HU-UFRR). Art. 2º Esta Portaria-SEI entra em vigor a partir da data de publicação.</t>
+  </si>
+  <si>
+    <t>Chamada Pública n. 01/2025 para Credenciamento Docente do MPSM – 2026/2028 - A Comissão de Credenciamento e Recredenciamento do Programa de Pós-Graduação em Saúde Mental e Atenção Psicossocial (MPSM) informa que no período de 19 de dezembro de 2025 a 31 de janeiro de 2026 estão abertas as inscrições para credenciamento de docentes para atuação no Programa no biênio 2026–2028. Homologação dos pedidos de credenciamento -0 Pedidos homologados: Jeferson Rodrigues, Dalvan de Campos, Vladimir Araujo da Silva, João Fillipe Horr e Vinicius da Silva Freitas.</t>
+  </si>
+  <si>
+    <t>https://mpsm.ufsc.br/2025/12/19/chamada-publica-no-012025-para-credenciamento-docente-do-mpsm-20262028/</t>
   </si>
 </sst>
 </file>
@@ -705,9 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4ABEF7-94C4-7247-BD80-8BBBAECAE311}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -774,102 +782,102 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1040,46 +1048,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1087,13 +1095,13 @@
         <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1101,154 +1109,168 @@
         <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
-    <sortCondition ref="A2:A23"/>
-    <sortCondition ref="B2:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
+    <sortCondition ref="A2:A38"/>
+    <sortCondition ref="B2:B38"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{DFF238BA-4FD8-F240-9DF9-E466F5842315}"/>
     <hyperlink ref="D12" r:id="rId2" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=9559547&amp;codigo_crc=1FB685B1&amp;hash_download=1b4072b6120c02a99dcf3a9b304ad2bcde1df498406b3c54a26c697b4b12aa8c7c5ea5b938bc4c9aa925c5eb7131a19c3f2b51a0faa483c1add61895b69182ca&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2E7E034A-324A-B748-883D-56A60A115DED}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{81467CCF-FC7A-F042-86EE-A34E39C620AB}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=6667910&amp;codigo_crc=19AE72ED&amp;hash_download=56c1c9b3335253a2ee316a6372266dfb50c9e7009967263d2d89c2c67a26b9e9092c438b82ed47de653a096c7d194d3b1bbeb029fe2691929b798e7dda67cc6d&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{91922150-59C9-2C45-B26A-2D5BD4682706}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{2D223F1C-FCF1-9A4B-A8CE-6E260AC2D4BD}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{A5E97398-8599-3E47-92B1-9038D67587B0}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{1350356C-21C0-1F49-9B31-A9F6345C1A20}"/>
     <hyperlink ref="D3" r:id="rId8" xr:uid="{040AC4B2-3572-2F4A-88E0-C4C6284B8D34}"/>
     <hyperlink ref="D2" r:id="rId9" xr:uid="{9144B94F-9DEE-3A4D-BC7B-E0013E8E5316}"/>
     <hyperlink ref="D15" r:id="rId10" display="https://sei.rr.gov.br/sei/controlador_externo.php?acao=documento_conferir&amp;codigo_verificador=12779657&amp;codigo_crc=AF0E99B9&amp;hash_download=34e2e51c4edb49b751fe0292a1cceaa659d8cf616efcb9c301bc594962271e58c6117ad7c69d45eacd129b5bda08c14b6c0f24a8c529997169e1b25e8356a20b&amp;visualizacao=1&amp;id_orgao_acesso_externo=0" xr:uid="{2A82EF7E-A60B-9048-9AB1-060D12789BD7}"/>
@@ -1262,22 +1284,23 @@
     <hyperlink ref="D16" r:id="rId18" xr:uid="{1BCEC1B2-DF85-B94A-B3C7-F25C2C5E40BD}"/>
     <hyperlink ref="D18" r:id="rId19" xr:uid="{8D98E7D6-747F-D043-AF95-4060F403B74F}"/>
     <hyperlink ref="D19" r:id="rId20" xr:uid="{855DDF5A-065C-2242-8422-FA357F625518}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
-    <hyperlink ref="D10" r:id="rId22" xr:uid="{0A75F6CF-698C-0E49-8BE6-37594FF0EBF7}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{F0E7CF65-3D00-0A49-8F24-8D7B51C3C4F1}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{A55C31AF-6401-6740-ADFD-C7A26F17E296}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{15BFB900-79A6-CD40-B427-6244EE237FB2}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{D15FFA2B-0E62-9649-A63B-F2B040EAFE98}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{C56C4BDF-4751-4F43-9716-946EAA74C119}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{5A04E172-7004-AE4A-BF19-4B20F3B6AE93}"/>
-    <hyperlink ref="D32" r:id="rId30" xr:uid="{63D902FB-2534-9E42-9D5F-4C8AC11C2CB4}"/>
-    <hyperlink ref="D33" r:id="rId31" xr:uid="{0A3EAD6F-0465-B94D-BA21-9E3BDA12BA4A}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{B4A849B0-1E1D-4D4B-A4FF-7ED74C3ADCBB}"/>
-    <hyperlink ref="D36" r:id="rId33" xr:uid="{3B1BE636-2D48-9046-8ACB-F8255380A361}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{C0AAAFD9-4A51-FE4E-ACCC-DF3E0086CCE9}"/>
-    <hyperlink ref="D9" r:id="rId35" xr:uid="{CBF5A22B-A747-014F-9236-71EF22A462E5}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{E2D6568A-D482-AF4D-B1A9-813FBC4D158C}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{83EDC013-7C8C-3D43-B487-BAE0C921DF8B}"/>
+    <hyperlink ref="D11" r:id="rId22" xr:uid="{0A75F6CF-698C-0E49-8BE6-37594FF0EBF7}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{EEEC2DAB-19F5-014B-829A-F63414C4D2A9}"/>
+    <hyperlink ref="D28" r:id="rId24" xr:uid="{F0E7CF65-3D00-0A49-8F24-8D7B51C3C4F1}"/>
+    <hyperlink ref="D36" r:id="rId25" xr:uid="{A55C31AF-6401-6740-ADFD-C7A26F17E296}"/>
+    <hyperlink ref="D35" r:id="rId26" xr:uid="{15BFB900-79A6-CD40-B427-6244EE237FB2}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{D15FFA2B-0E62-9649-A63B-F2B040EAFE98}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{C56C4BDF-4751-4F43-9716-946EAA74C119}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{5A04E172-7004-AE4A-BF19-4B20F3B6AE93}"/>
+    <hyperlink ref="D30" r:id="rId30" xr:uid="{63D902FB-2534-9E42-9D5F-4C8AC11C2CB4}"/>
+    <hyperlink ref="D37" r:id="rId31" xr:uid="{0A3EAD6F-0465-B94D-BA21-9E3BDA12BA4A}"/>
+    <hyperlink ref="D32" r:id="rId32" xr:uid="{B4A849B0-1E1D-4D4B-A4FF-7ED74C3ADCBB}"/>
+    <hyperlink ref="D29" r:id="rId33" xr:uid="{3B1BE636-2D48-9046-8ACB-F8255380A361}"/>
+    <hyperlink ref="D24" r:id="rId34" xr:uid="{C0AAAFD9-4A51-FE4E-ACCC-DF3E0086CCE9}"/>
+    <hyperlink ref="D5" r:id="rId35" xr:uid="{CBF5A22B-A747-014F-9236-71EF22A462E5}"/>
+    <hyperlink ref="D38" r:id="rId36" xr:uid="{E2D6568A-D482-AF4D-B1A9-813FBC4D158C}"/>
+    <hyperlink ref="D25" r:id="rId37" xr:uid="{C5A02E17-A8D8-1942-893A-EA616748851F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
